--- a/ESP32/tCam-Mini/hardware/documentation/tcam_mini_rev02_bom.xlsx
+++ b/ESP32/tCam-Mini/hardware/documentation/tcam_mini_rev02_bom.xlsx
@@ -2137,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s" s="6">
         <v>35</v>
